--- a/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год.xlsx
+++ b/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="303">
   <si>
     <t>ФИО студента</t>
   </si>
@@ -942,26 +942,327 @@
     <t>Гаврилова Дарья Александровна</t>
   </si>
   <si>
-    <t>№ 287-2 от 26.01.2023</t>
-  </si>
-  <si>
-    <t>№ 0743 от 10.02.2023</t>
-  </si>
-  <si>
-    <t>№ 1865-2 от 27.03.2023</t>
-  </si>
-  <si>
-    <t>№ 0106-2 от 17.01.2023</t>
-  </si>
-  <si>
-    <t>№ 0107-2 от 17.01.2023</t>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>января</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. № </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>287-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>февраля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. № </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0743</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>марта</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. № </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1865-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>январ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>я 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. № </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0106-2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1016,6 +1317,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1526,7 +1835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1943,7 +2252,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
@@ -2055,7 +2364,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -2111,7 +2420,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2167,7 +2476,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -2223,7 +2532,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -5544,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10136,8 +10445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10371,8 +10680,8 @@
       <c r="Q4" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R4" s="17" t="s">
-        <v>303</v>
+      <c r="R4" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10819,8 +11128,8 @@
       <c r="Q12" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>303</v>
+      <c r="R12" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10987,8 +11296,8 @@
       <c r="Q15" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R15" s="17" t="s">
-        <v>303</v>
+      <c r="R15" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год.xlsx
+++ b/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="495" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="495" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Практика 3 к. бак." sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="325">
   <si>
     <t>ФИО студента</t>
   </si>
@@ -927,9 +927,6 @@
     <t>Павлов Евгений Александрович</t>
   </si>
   <si>
-    <t>с.н.с. НОЦГПН</t>
-  </si>
-  <si>
     <t>Производственная практика, преддипломная практика</t>
   </si>
   <si>
@@ -942,108 +939,11 @@
     <t>Гаврилова Дарья Александровна</t>
   </si>
   <si>
+    <t>«20» января 2023 г. №12-к</t>
+  </si>
+  <si>
     <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">» </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>января</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 20</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> г. № </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>287-2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">» </t>
+      <t xml:space="preserve">«1» </t>
     </r>
     <r>
       <rPr>
@@ -1085,7 +985,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> г. № </t>
+      <t xml:space="preserve"> г. №8-ас</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«20» </t>
     </r>
     <r>
       <rPr>
@@ -1096,23 +1001,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>0743</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>27</t>
+      <t>январ</t>
     </r>
     <r>
       <rPr>
@@ -1122,28 +1011,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">» </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>марта</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 20</t>
+      <t>я 20</t>
     </r>
     <r>
       <rPr>
@@ -1164,7 +1032,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> г. № </t>
+      <t xml:space="preserve"> г. №43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«18» </t>
     </r>
     <r>
       <rPr>
@@ -1175,7 +1048,38 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>1865-2</t>
+      <t>январ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>я 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №4</t>
     </r>
   </si>
   <si>
@@ -1191,7 +1095,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>17</t>
+      <t>18</t>
     </r>
     <r>
       <rPr>
@@ -1243,7 +1147,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> г. № </t>
+      <t xml:space="preserve"> г. №4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«20» </t>
     </r>
     <r>
       <rPr>
@@ -1254,8 +1163,389 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>0106-2</t>
+      <t>январ</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>я 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №483</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«24» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>январ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>я 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №24.01.23/4-од</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«9» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>февраля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №12-ас</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«14» марта 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №277/лс</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«17» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>марта</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №286/лс</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«31» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>января</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«7» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>февраля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №23-к</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«3» </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>апреля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> г. №66-к</t>
+    </r>
+  </si>
+  <si>
+    <t>ИМ СО РАН, Лаборатория алгебры</t>
+  </si>
+  <si>
+    <t>зам. директора</t>
+  </si>
+  <si>
+    <t>Инициалы</t>
+  </si>
+  <si>
+    <t>Вишневский О.В.</t>
+  </si>
+  <si>
+    <t>Барахнин В.Б.</t>
+  </si>
+  <si>
+    <t>Пальчунов Д.Е.</t>
+  </si>
+  <si>
+    <t>Савостьянов А.Н.</t>
+  </si>
+  <si>
+    <t>Хазанкин Г.Р.</t>
+  </si>
+  <si>
+    <t>Дучков А.А.</t>
+  </si>
+  <si>
+    <t>Марчук А.Г.</t>
+  </si>
+  <si>
+    <t>Свириденко Д.И.</t>
+  </si>
+  <si>
+    <t>Добрецов Н.Н.</t>
+  </si>
+  <si>
+    <t>Яскевич С.В.</t>
+  </si>
+  <si>
+    <t>Дудкин Ф.А.</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +2125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2698,7 +2988,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -2810,7 +3100,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -2866,7 +3156,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -2922,7 +3212,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
@@ -2978,7 +3268,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
@@ -3034,7 +3324,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -3202,7 +3492,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -3314,7 +3604,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -3370,7 +3660,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -3426,7 +3716,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -3482,7 +3772,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -3538,7 +3828,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -3594,7 +3884,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -3650,7 +3940,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -3706,7 +3996,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -3762,7 +4052,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -3818,7 +4108,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -3874,7 +4164,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -3930,7 +4220,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
@@ -3986,7 +4276,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -4098,7 +4388,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
@@ -4154,7 +4444,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
@@ -4210,7 +4500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
@@ -4266,7 +4556,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -4322,7 +4612,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -4378,7 +4668,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -4434,7 +4724,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -4490,7 +4780,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -4546,7 +4836,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -4602,7 +4892,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
@@ -4658,7 +4948,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -4714,7 +5004,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>69</v>
       </c>
@@ -4770,7 +5060,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>25</v>
       </c>
@@ -4826,7 +5116,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
@@ -4938,7 +5228,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>75</v>
       </c>
@@ -4994,7 +5284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>26</v>
       </c>
@@ -5050,7 +5340,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -5106,7 +5396,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>76</v>
       </c>
@@ -5162,7 +5452,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>28</v>
       </c>
@@ -5218,7 +5508,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>29</v>
       </c>
@@ -5274,7 +5564,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>70</v>
       </c>
@@ -5330,7 +5620,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>71</v>
       </c>
@@ -5498,7 +5788,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
@@ -5554,7 +5844,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>37</v>
       </c>
@@ -5610,7 +5900,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>30</v>
       </c>
@@ -5666,7 +5956,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -5722,7 +6012,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>57</v>
       </c>
@@ -5778,7 +6068,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -5853,8 +6143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5935,7 +6225,7 @@
         <v>219</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>6</v>
@@ -5977,7 +6267,7 @@
         <v>260</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -5991,7 +6281,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>84</v>
@@ -6033,7 +6323,7 @@
         <v>260</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6047,7 +6337,7 @@
         <v>220</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>60</v>
@@ -6089,7 +6379,7 @@
         <v>260</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6103,7 +6393,7 @@
         <v>221</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>88</v>
@@ -6145,7 +6435,7 @@
         <v>260</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6159,7 +6449,7 @@
         <v>222</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>6</v>
@@ -6201,7 +6491,7 @@
         <v>260</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6215,7 +6505,7 @@
         <v>219</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>88</v>
@@ -6257,7 +6547,7 @@
         <v>260</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6271,7 +6561,7 @@
         <v>220</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>39</v>
@@ -6289,17 +6579,13 @@
         <v>194</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>260</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="17" t="s">
         <v>6</v>
       </c>
@@ -6313,7 +6599,7 @@
         <v>260</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6327,7 +6613,7 @@
         <v>220</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>39</v>
@@ -6369,7 +6655,7 @@
         <v>260</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6383,7 +6669,7 @@
         <v>223</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>84</v>
@@ -6425,7 +6711,7 @@
         <v>260</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6439,7 +6725,7 @@
         <v>224</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>39</v>
@@ -6481,7 +6767,7 @@
         <v>260</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6495,7 +6781,7 @@
         <v>223</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>9</v>
@@ -6537,7 +6823,7 @@
         <v>260</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6551,7 +6837,7 @@
         <v>219</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>6</v>
@@ -6593,7 +6879,7 @@
         <v>260</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6607,7 +6893,7 @@
         <v>225</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>102</v>
@@ -6649,7 +6935,7 @@
         <v>260</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6663,7 +6949,7 @@
         <v>220</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>39</v>
@@ -6705,7 +6991,7 @@
         <v>260</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6719,7 +7005,7 @@
         <v>222</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>88</v>
@@ -6761,7 +7047,7 @@
         <v>260</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6775,7 +7061,7 @@
         <v>220</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>39</v>
@@ -6817,7 +7103,7 @@
         <v>260</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6831,7 +7117,7 @@
         <v>220</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>39</v>
@@ -6873,7 +7159,7 @@
         <v>260</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6887,7 +7173,7 @@
         <v>222</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>6</v>
@@ -6929,7 +7215,7 @@
         <v>260</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6943,7 +7229,7 @@
         <v>219</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>88</v>
@@ -6985,7 +7271,7 @@
         <v>260</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -6999,7 +7285,7 @@
         <v>227</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>60</v>
@@ -7041,7 +7327,7 @@
         <v>260</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7055,7 +7341,7 @@
         <v>222</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>60</v>
@@ -7097,7 +7383,7 @@
         <v>260</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7111,7 +7397,7 @@
         <v>226</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>60</v>
@@ -7153,7 +7439,7 @@
         <v>260</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7167,7 +7453,7 @@
         <v>221</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>102</v>
@@ -7209,7 +7495,7 @@
         <v>260</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7223,7 +7509,7 @@
         <v>221</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>88</v>
@@ -7265,7 +7551,7 @@
         <v>260</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7279,20 +7565,18 @@
         <v>224</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>260</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
         <v>230</v>
       </c>
@@ -7300,7 +7584,7 @@
         <v>82</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>262</v>
@@ -7321,7 +7605,7 @@
         <v>266</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7335,7 +7619,7 @@
         <v>227</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>60</v>
@@ -7377,7 +7661,7 @@
         <v>260</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7391,7 +7675,7 @@
         <v>219</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>60</v>
@@ -7433,7 +7717,7 @@
         <v>260</v>
       </c>
       <c r="R28" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7447,7 +7731,7 @@
         <v>222</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>102</v>
@@ -7489,7 +7773,7 @@
         <v>260</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7503,7 +7787,7 @@
         <v>228</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>88</v>
@@ -7521,17 +7805,13 @@
         <v>194</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>260</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="17" t="s">
         <v>6</v>
       </c>
@@ -7545,7 +7825,7 @@
         <v>260</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7559,7 +7839,7 @@
         <v>227</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>84</v>
@@ -7577,7 +7857,7 @@
         <v>194</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>264</v>
@@ -7601,7 +7881,7 @@
         <v>260</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7615,7 +7895,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>6</v>
@@ -7657,7 +7937,7 @@
         <v>260</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7671,7 +7951,7 @@
         <v>228</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>39</v>
@@ -7713,7 +7993,7 @@
         <v>260</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7727,7 +8007,7 @@
         <v>224</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>6</v>
@@ -7769,7 +8049,7 @@
         <v>260</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7783,7 +8063,7 @@
         <v>222</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>84</v>
@@ -7825,7 +8105,7 @@
         <v>260</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7839,7 +8119,7 @@
         <v>228</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>80</v>
@@ -7881,7 +8161,7 @@
         <v>266</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7895,7 +8175,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>82</v>
@@ -7937,7 +8217,7 @@
         <v>266</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -7951,7 +8231,7 @@
         <v>225</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>80</v>
@@ -7993,7 +8273,7 @@
         <v>266</v>
       </c>
       <c r="R38" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8007,7 +8287,7 @@
         <v>224</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>80</v>
@@ -8049,7 +8329,7 @@
         <v>266</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8063,7 +8343,7 @@
         <v>225</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>82</v>
@@ -8105,7 +8385,7 @@
         <v>266</v>
       </c>
       <c r="R40" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8119,7 +8399,7 @@
         <v>225</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>82</v>
@@ -8161,7 +8441,7 @@
         <v>266</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8175,7 +8455,7 @@
         <v>228</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>84</v>
@@ -8190,7 +8470,7 @@
         <v>266</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="J42" s="17" t="s">
         <v>84</v>
@@ -8205,7 +8485,7 @@
         <v>266</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="O42" s="17" t="s">
         <v>284</v>
@@ -8217,7 +8497,7 @@
         <v>260</v>
       </c>
       <c r="R42" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8231,7 +8511,7 @@
         <v>225</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>80</v>
@@ -8273,7 +8553,7 @@
         <v>266</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8287,7 +8567,7 @@
         <v>223</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>32</v>
@@ -8329,7 +8609,7 @@
         <v>260</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8343,7 +8623,7 @@
         <v>220</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>32</v>
@@ -8385,7 +8665,7 @@
         <v>260</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8399,7 +8679,7 @@
         <v>227</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>32</v>
@@ -8441,7 +8721,7 @@
         <v>260</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8455,7 +8735,7 @@
         <v>227</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>32</v>
@@ -8497,7 +8777,7 @@
         <v>260</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8511,7 +8791,7 @@
         <v>225</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>9</v>
@@ -8553,7 +8833,7 @@
         <v>266</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -8567,7 +8847,7 @@
         <v>223</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>2</v>
@@ -8609,12 +8889,12 @@
         <v>260</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>191</v>
@@ -8623,7 +8903,7 @@
         <v>224</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>84</v>
@@ -8636,7 +8916,7 @@
       </c>
       <c r="H50" s="18"/>
       <c r="I50" s="17" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="J50" s="17" t="s">
         <v>84</v>
@@ -8649,7 +8929,7 @@
       </c>
       <c r="M50" s="18"/>
       <c r="N50" s="17" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="O50" s="17" t="s">
         <v>284</v>
@@ -8661,12 +8941,12 @@
         <v>260</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>191</v>
@@ -8675,7 +8955,7 @@
         <v>222</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>2</v>
@@ -8717,7 +8997,7 @@
         <v>260</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8735,8 +9015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:R30"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10445,8 +10725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10539,7 +10819,7 @@
         <v>260</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>209</v>
@@ -10568,8 +10848,8 @@
       <c r="Q2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>302</v>
+      <c r="R2" s="17" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10595,7 +10875,7 @@
         <v>260</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>194</v>
@@ -10624,8 +10904,8 @@
       <c r="Q3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>302</v>
+      <c r="R3" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10651,7 +10931,7 @@
         <v>260</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>194</v>
@@ -10680,8 +10960,8 @@
       <c r="Q4" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>302</v>
+      <c r="R4" s="17" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10707,7 +10987,7 @@
         <v>260</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>194</v>
@@ -10736,8 +11016,8 @@
       <c r="Q5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>302</v>
+      <c r="R5" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10763,7 +11043,7 @@
         <v>260</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>209</v>
@@ -10792,8 +11072,8 @@
       <c r="Q6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>302</v>
+      <c r="R6" s="17" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10819,7 +11099,7 @@
         <v>266</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>248</v>
@@ -10848,7 +11128,7 @@
       <c r="Q7" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="17" t="s">
         <v>302</v>
       </c>
     </row>
@@ -10875,7 +11155,7 @@
         <v>260</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>249</v>
@@ -10904,8 +11184,8 @@
       <c r="Q8" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>302</v>
+      <c r="R8" s="17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10931,7 +11211,7 @@
         <v>260</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>194</v>
@@ -10960,8 +11240,8 @@
       <c r="Q9" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>302</v>
+      <c r="R9" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10987,7 +11267,7 @@
         <v>260</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>194</v>
@@ -11016,8 +11296,8 @@
       <c r="Q10" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>302</v>
+      <c r="R10" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11043,7 +11323,7 @@
         <v>260</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>194</v>
@@ -11072,8 +11352,8 @@
       <c r="Q11" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>302</v>
+      <c r="R11" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11099,7 +11379,7 @@
         <v>266</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>248</v>
@@ -11128,8 +11408,8 @@
       <c r="Q12" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>302</v>
+      <c r="R12" s="17" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11155,7 +11435,7 @@
         <v>260</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>194</v>
@@ -11184,8 +11464,8 @@
       <c r="Q13" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>302</v>
+      <c r="R13" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11211,7 +11491,7 @@
         <v>260</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>194</v>
@@ -11240,8 +11520,8 @@
       <c r="Q14" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>302</v>
+      <c r="R14" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11267,7 +11547,7 @@
         <v>266</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>207</v>
@@ -11296,8 +11576,8 @@
       <c r="Q15" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>302</v>
+      <c r="R15" s="17" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -11315,8 +11595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11662,7 +11942,7 @@
         <v>270</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -11681,7 +11961,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11846,18 +12126,18 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>266</v>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>266</v>
+        <v>291</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>266</v>
@@ -11978,10 +12258,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11990,7 +12270,7 @@
     <col min="2" max="16384" width="23.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>252</v>
       </c>
@@ -12006,8 +12286,11 @@
       <c r="E1" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -12023,8 +12306,11 @@
       <c r="E2" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>217</v>
       </c>
@@ -12040,8 +12326,11 @@
       <c r="E3" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -12057,8 +12346,11 @@
       <c r="E4" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -12074,8 +12366,11 @@
       <c r="E5" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>266</v>
       </c>
@@ -12092,7 +12387,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>202</v>
       </c>
@@ -12108,16 +12403,19 @@
       <c r="E7" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>262</v>
@@ -12125,8 +12423,11 @@
       <c r="E8" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>166</v>
       </c>
@@ -12142,8 +12443,11 @@
       <c r="E9" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>139</v>
       </c>
@@ -12159,8 +12463,11 @@
       <c r="E10" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>250</v>
       </c>
@@ -12175,6 +12482,46 @@
       </c>
       <c r="E11" s="2" t="s">
         <v>266</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год.xlsx
+++ b/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="495" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="495" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Практика 3 к. бак." sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="334">
   <si>
     <t>ФИО студента</t>
   </si>
@@ -1546,6 +1546,33 @@
   </si>
   <si>
     <t>Дудкин Ф.А.</t>
+  </si>
+  <si>
+    <t>Полное наименование организации и структурного подразделения, индекс, адрес</t>
+  </si>
+  <si>
+    <t>ФГБУН Институт математики им. С. Л. Соболева СО РАН, Лаборатория теории вычислимости и прикладной логики, 630090, Новосибирская обл., Новосибирск, пр. Академика Коптюга, 4</t>
+  </si>
+  <si>
+    <t>ФГБУН Институт нефтегазовой геологии и геофизики им. А.А.Трофимука им. Трофимука, Лаборатория динамических проблем сейсмики, 630090, Новосибирская обл., Новосибирск, пр. Академика Коптюга, 3</t>
+  </si>
+  <si>
+    <t>ФГБУН Институт математики им. С. Л. Соболева СО РАН, Лаборатория алгебры, 630090, Новосибирская обл., Новосибирск, пр. Академика Коптюга, 4</t>
+  </si>
+  <si>
+    <t>ФГБНУ «Научно-исследовательский институт нейронаук и медицины", Отдел клинической нейронауки, поведения и нейротехнологий, 630117, Новосибирская обл., Новосибирск, ул. Тимакова, 4</t>
+  </si>
+  <si>
+    <t>Федеральный исследовательский центр информационных и вычислительных технологий, Лаборатория информационных ресурсов, 630090, Новосибирская обл., Новосибирск, пр. Академика Лаврентьева, 6</t>
+  </si>
+  <si>
+    <t>ФГБУН Институт систем информатики им. А.П. Ершова СО РАН, Лаборатория информационных систем, 630090, Новосибирская обл., Новосибирск, пр. Академика Лаврентьева, 6</t>
+  </si>
+  <si>
+    <t>ФГБУН Институт геологии и минералогии СО РАН, Лаборатория геоинформационных технологий и дистанционного зондирования, 630090, Новосибирская обл., Новосибирск, проспект Академика Коптюга, 3</t>
+  </si>
+  <si>
+    <t>ФГБНУ "Научно-исследовательский институт нейронаук и медицины", Лаборатория дифференциальной психофизиологии, 630117, Новосибирская обл., Новосибирск, ул. Тимакова, 4</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1646,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1635,6 +1662,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,7 +1727,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1748,6 +1781,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2988,7 +3024,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -3100,7 +3136,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -3156,7 +3192,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -3212,7 +3248,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
@@ -3268,7 +3304,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
@@ -3324,7 +3360,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -3492,7 +3528,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -3604,7 +3640,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -3660,7 +3696,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -3716,7 +3752,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -3772,7 +3808,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -3828,7 +3864,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -3884,7 +3920,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -3940,7 +3976,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -3996,7 +4032,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -4052,7 +4088,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -4108,7 +4144,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -4164,7 +4200,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -4220,7 +4256,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
@@ -4276,7 +4312,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -4388,7 +4424,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
@@ -4444,7 +4480,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
@@ -4500,7 +4536,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
@@ -4556,7 +4592,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -4612,7 +4648,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -4668,7 +4704,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -4724,7 +4760,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -4780,7 +4816,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -4836,7 +4872,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -4892,7 +4928,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
@@ -4948,7 +4984,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -5004,7 +5040,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>69</v>
       </c>
@@ -5060,7 +5096,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>25</v>
       </c>
@@ -5116,7 +5152,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
@@ -5228,7 +5264,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>75</v>
       </c>
@@ -5284,7 +5320,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>26</v>
       </c>
@@ -5340,7 +5376,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -5396,7 +5432,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>76</v>
       </c>
@@ -5452,7 +5488,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>28</v>
       </c>
@@ -5508,7 +5544,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>29</v>
       </c>
@@ -5564,7 +5600,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>70</v>
       </c>
@@ -5620,7 +5656,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>71</v>
       </c>
@@ -5788,7 +5824,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
@@ -5844,7 +5880,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>37</v>
       </c>
@@ -5900,7 +5936,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>30</v>
       </c>
@@ -5956,7 +5992,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -6012,7 +6048,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>57</v>
       </c>
@@ -6068,7 +6104,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -6141,10 +6177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView topLeftCell="J49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6155,10 +6191,11 @@
     <col min="16" max="16" width="20" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="19" max="16384" width="11.5703125" style="1"/>
+    <col min="19" max="19" width="45.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6213,8 +6250,11 @@
       <c r="R1" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>78</v>
       </c>
@@ -6269,8 +6309,11 @@
       <c r="R2" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>83</v>
       </c>
@@ -6325,8 +6368,11 @@
       <c r="R3" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>86</v>
       </c>
@@ -6381,8 +6427,11 @@
       <c r="R4" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>87</v>
       </c>
@@ -6437,8 +6486,11 @@
       <c r="R5" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>89</v>
       </c>
@@ -6493,8 +6545,11 @@
       <c r="R6" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>90</v>
       </c>
@@ -6549,8 +6604,11 @@
       <c r="R7" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>92</v>
       </c>
@@ -6601,8 +6659,11 @@
       <c r="R8" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>93</v>
       </c>
@@ -6657,8 +6718,11 @@
       <c r="R9" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>94</v>
       </c>
@@ -6713,8 +6777,11 @@
       <c r="R10" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>97</v>
       </c>
@@ -6769,8 +6836,11 @@
       <c r="R11" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>98</v>
       </c>
@@ -6825,8 +6895,11 @@
       <c r="R12" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>100</v>
       </c>
@@ -6881,8 +6954,11 @@
       <c r="R13" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>101</v>
       </c>
@@ -6937,8 +7013,11 @@
       <c r="R14" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>103</v>
       </c>
@@ -6993,8 +7072,11 @@
       <c r="R15" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>104</v>
       </c>
@@ -7049,8 +7131,11 @@
       <c r="R16" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>105</v>
       </c>
@@ -7105,8 +7190,11 @@
       <c r="R17" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>106</v>
       </c>
@@ -7161,8 +7249,11 @@
       <c r="R18" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>107</v>
       </c>
@@ -7217,8 +7308,11 @@
       <c r="R19" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>108</v>
       </c>
@@ -7273,8 +7367,11 @@
       <c r="R20" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>113</v>
       </c>
@@ -7329,8 +7426,11 @@
       <c r="R21" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>114</v>
       </c>
@@ -7385,8 +7485,11 @@
       <c r="R22" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>115</v>
       </c>
@@ -7441,8 +7544,11 @@
       <c r="R23" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S23" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>116</v>
       </c>
@@ -7497,8 +7603,11 @@
       <c r="R24" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>118</v>
       </c>
@@ -7553,8 +7662,11 @@
       <c r="R25" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>293</v>
       </c>
@@ -7607,8 +7719,11 @@
       <c r="R26" s="17" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S26" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>119</v>
       </c>
@@ -7663,8 +7778,11 @@
       <c r="R27" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>120</v>
       </c>
@@ -7719,8 +7837,11 @@
       <c r="R28" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>121</v>
       </c>
@@ -7775,8 +7896,11 @@
       <c r="R29" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>124</v>
       </c>
@@ -7827,8 +7951,11 @@
       <c r="R30" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S30" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>125</v>
       </c>
@@ -7883,8 +8010,11 @@
       <c r="R31" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S31" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>126</v>
       </c>
@@ -7939,8 +8069,11 @@
       <c r="R32" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>127</v>
       </c>
@@ -7995,8 +8128,11 @@
       <c r="R33" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>128</v>
       </c>
@@ -8051,8 +8187,11 @@
       <c r="R34" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>129</v>
       </c>
@@ -8107,8 +8246,11 @@
       <c r="R35" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>79</v>
       </c>
@@ -8163,8 +8305,11 @@
       <c r="R36" s="17" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S36" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>81</v>
       </c>
@@ -8219,8 +8364,11 @@
       <c r="R37" s="17" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S37" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>85</v>
       </c>
@@ -8275,8 +8423,11 @@
       <c r="R38" s="17" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S38" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>109</v>
       </c>
@@ -8331,8 +8482,11 @@
       <c r="R39" s="17" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S39" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>111</v>
       </c>
@@ -8387,8 +8541,11 @@
       <c r="R40" s="17" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>112</v>
       </c>
@@ -8443,8 +8600,11 @@
       <c r="R41" s="17" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>117</v>
       </c>
@@ -8499,8 +8659,11 @@
       <c r="R42" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>122</v>
       </c>
@@ -8555,8 +8718,11 @@
       <c r="R43" s="17" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S43" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>91</v>
       </c>
@@ -8611,8 +8777,11 @@
       <c r="R44" s="17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S44" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>95</v>
       </c>
@@ -8667,8 +8836,11 @@
       <c r="R45" s="17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>99</v>
       </c>
@@ -8723,8 +8895,11 @@
       <c r="R46" s="17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S46" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>110</v>
       </c>
@@ -8779,8 +8954,11 @@
       <c r="R47" s="17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S47" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>123</v>
       </c>
@@ -8835,8 +9013,11 @@
       <c r="R48" s="17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S48" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
         <v>96</v>
       </c>
@@ -8891,8 +9072,11 @@
       <c r="R49" s="17" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="S49" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>296</v>
       </c>
@@ -8943,8 +9127,11 @@
       <c r="R50" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="S50" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>297</v>
       </c>
@@ -8998,6 +9185,9 @@
       </c>
       <c r="R51" s="17" t="s">
         <v>310</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -10723,10 +10913,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10737,10 +10927,11 @@
     <col min="16" max="16" width="20" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="19" max="16384" width="11.5703125" style="1"/>
+    <col min="19" max="19" width="34.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10795,8 +10986,11 @@
       <c r="R1" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
@@ -10851,8 +11045,11 @@
       <c r="R2" s="17" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>161</v>
       </c>
@@ -10907,8 +11104,11 @@
       <c r="R3" s="17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>162</v>
       </c>
@@ -10963,8 +11163,11 @@
       <c r="R4" s="17" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>163</v>
       </c>
@@ -11019,8 +11222,11 @@
       <c r="R5" s="17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>164</v>
       </c>
@@ -11075,8 +11281,11 @@
       <c r="R6" s="17" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>165</v>
       </c>
@@ -11131,8 +11340,11 @@
       <c r="R7" s="17" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>167</v>
       </c>
@@ -11187,8 +11399,11 @@
       <c r="R8" s="17" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>168</v>
       </c>
@@ -11243,8 +11458,11 @@
       <c r="R9" s="17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>169</v>
       </c>
@@ -11299,8 +11517,11 @@
       <c r="R10" s="17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>170</v>
       </c>
@@ -11355,8 +11576,11 @@
       <c r="R11" s="17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>171</v>
       </c>
@@ -11411,8 +11635,11 @@
       <c r="R12" s="17" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>172</v>
       </c>
@@ -11467,8 +11694,11 @@
       <c r="R13" s="17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>173</v>
       </c>
@@ -11523,8 +11753,11 @@
       <c r="R14" s="17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>174</v>
       </c>
@@ -11578,6 +11811,9 @@
       </c>
       <c r="R15" s="17" t="s">
         <v>300</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -12260,7 +12496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год.xlsx
+++ b/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="495" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="495" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Практика 3 к. бак." sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="341">
   <si>
     <t>ФИО студента</t>
   </si>
@@ -1574,12 +1574,33 @@
   <si>
     <t>ФГБНУ "Научно-исследовательский институт нейронаук и медицины", Лаборатория дифференциальной психофизиологии, 630117, Новосибирская обл., Новосибирск, ул. Тимакова, 4</t>
   </si>
+  <si>
+    <t>«___»_______ 20 ___ г.</t>
+  </si>
+  <si>
+    <t>«9» февраля 2023 г.</t>
+  </si>
+  <si>
+    <t>Дата бакалавры</t>
+  </si>
+  <si>
+    <t>Дата магистранты ТРПС</t>
+  </si>
+  <si>
+    <t>Дата магистранты МДА</t>
+  </si>
+  <si>
+    <t>«8» февраля 2023 г.</t>
+  </si>
+  <si>
+    <t>«1» февраля 2023 г.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1643,6 +1664,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1727,7 +1754,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1784,6 +1811,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2161,7 +2191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3024,7 +3054,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -3136,7 +3166,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -3192,7 +3222,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -3248,7 +3278,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
@@ -3304,7 +3334,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
@@ -3360,7 +3390,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -3528,7 +3558,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -3640,7 +3670,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -3696,7 +3726,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -3752,7 +3782,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -3808,7 +3838,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -3864,7 +3894,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -3920,7 +3950,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -3976,7 +4006,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -4032,7 +4062,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
@@ -4088,7 +4118,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -4144,7 +4174,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -4200,7 +4230,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -4256,7 +4286,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
@@ -4312,7 +4342,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -4424,7 +4454,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
@@ -4480,7 +4510,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
@@ -4536,7 +4566,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
@@ -4592,7 +4622,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -4648,7 +4678,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -4704,7 +4734,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -4760,7 +4790,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -4816,7 +4846,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -4872,7 +4902,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -4928,7 +4958,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
@@ -4984,7 +5014,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
@@ -5040,7 +5070,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>69</v>
       </c>
@@ -5096,7 +5126,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>25</v>
       </c>
@@ -5152,7 +5182,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
@@ -5264,7 +5294,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>75</v>
       </c>
@@ -5320,7 +5350,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>26</v>
       </c>
@@ -5376,7 +5406,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -5432,7 +5462,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>76</v>
       </c>
@@ -5488,7 +5518,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>28</v>
       </c>
@@ -5544,7 +5574,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>29</v>
       </c>
@@ -5600,7 +5630,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>70</v>
       </c>
@@ -5656,7 +5686,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>71</v>
       </c>
@@ -5824,7 +5854,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
@@ -5880,7 +5910,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>37</v>
       </c>
@@ -5936,7 +5966,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>30</v>
       </c>
@@ -5992,7 +6022,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -6048,7 +6078,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>57</v>
       </c>
@@ -6104,7 +6134,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -10915,7 +10945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
@@ -12494,10 +12524,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12506,7 +12536,7 @@
     <col min="2" max="16384" width="23.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>252</v>
       </c>
@@ -12525,8 +12555,17 @@
       <c r="F1" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -12545,8 +12584,17 @@
       <c r="F2" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>217</v>
       </c>
@@ -12565,8 +12613,17 @@
       <c r="F3" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G3" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -12585,8 +12642,17 @@
       <c r="F4" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G4" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -12605,8 +12671,17 @@
       <c r="F5" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>266</v>
       </c>
@@ -12622,8 +12697,17 @@
       <c r="E6" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>202</v>
       </c>
@@ -12642,8 +12726,17 @@
       <c r="F7" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>80</v>
       </c>
@@ -12662,8 +12755,17 @@
       <c r="F8" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="G8" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>166</v>
       </c>
@@ -12682,8 +12784,17 @@
       <c r="F9" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G9" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>139</v>
       </c>
@@ -12702,8 +12813,17 @@
       <c r="F10" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G10" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>250</v>
       </c>
@@ -12722,8 +12842,17 @@
       <c r="F11" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G11" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -12739,8 +12868,17 @@
       <c r="F12" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G12" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>84</v>
       </c>
@@ -12758,12 +12896,21 @@
       </c>
       <c r="F13" s="1" t="s">
         <v>324</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
